--- a/biology/Botanique/Grand_Parc_de_Miribel-Jonage/Grand_Parc_de_Miribel-Jonage.xlsx
+++ b/biology/Botanique/Grand_Parc_de_Miribel-Jonage/Grand_Parc_de_Miribel-Jonage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Grand Parc de Miribel-Jonage est un parc de l'agglomération lyonnaise couvrant près de 2 200 hectares[1] en périphérie de Lyon. Il correspond à une zone aménagée sur l'Île de Miribel-Jonage, à la suite de la création de celle-ci, à partir du milieu du XIXe siècle, par le creusement des canaux de Miribel et de Jonage destinés à maîtriser le Rhône qui s'étiolait alors dans de multiples ramifications et posait donc un certain nombre de problèmes, en particulier en termes de crues. Le Vieux Rhône qui coule pour l'essentiel dans le Grand parc, témoigne de cette situation passée.
-Il constitue d'une part un lieu de loisirs pour les habitants du Grand Lyon et pour ceux de la Côtière de l'Ain et d'autre part, une zone de protection de la faune et de la flore : L'Île de Miribel-Jonage (le parc occupe 22 des 28,49 km2 de cette île) est zone Natura 2000[2] et le Lac des Eaux Bleues constitue une ZNIEFF de type II[3].
+Le Grand Parc de Miribel-Jonage est un parc de l'agglomération lyonnaise couvrant près de 2 200 hectares en périphérie de Lyon. Il correspond à une zone aménagée sur l'Île de Miribel-Jonage, à la suite de la création de celle-ci, à partir du milieu du XIXe siècle, par le creusement des canaux de Miribel et de Jonage destinés à maîtriser le Rhône qui s'étiolait alors dans de multiples ramifications et posait donc un certain nombre de problèmes, en particulier en termes de crues. Le Vieux Rhône qui coule pour l'essentiel dans le Grand parc, témoigne de cette situation passée.
+Il constitue d'une part un lieu de loisirs pour les habitants du Grand Lyon et pour ceux de la Côtière de l'Ain et d'autre part, une zone de protection de la faune et de la flore : L'Île de Miribel-Jonage (le parc occupe 22 des 28,49 km2 de cette île) est zone Natura 2000 et le Lac des Eaux Bleues constitue une ZNIEFF de type II.
 Le Grand Parc assure quatre fonctions principales : constituer la ressource en eau potable de secours de Lyon, constituer une zone inondable en cas de crues qui protège ainsi l'agglomération lyonnaise, constituer une zone de protection du patrimoine naturel (avec par exemple les Grands Vernes), et enfin assurer une fonction de base de loisirs (terrain de golf, base nautique, etc.)
 </t>
         </is>
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1848 et 1857 est creusé le canal de navigation de Miribel qui ceinture le parc au Nord et entre 1892 et 1899, le canal de Jonage destiné à alimenter la centrale hydroélectrique de Cusset à Villeurbanne. Jusqu'à la première moitié du XXe siècle, le site est ignoré des pouvoirs locaux.
-Au début des années 1960, un projet prévoit la construction d'un grand ensemble tertiaire sur le site de Miribel-Jonage, agrémenté d'un lac et desservi par les autoroutes ; les anciens terrains militaires de la Part-Dieu lui sont finalement préférés, et le projet est reconverti en zone de loisirs[4].
+Au début des années 1960, un projet prévoit la construction d'un grand ensemble tertiaire sur le site de Miribel-Jonage, agrémenté d'un lac et desservi par les autoroutes ; les anciens terrains militaires de la Part-Dieu lui sont finalement préférés, et le projet est reconverti en zone de loisirs.
 En 1968 est créée le Symalim (Syndicat Mixte pour l’Aménagement et la Gestion du Grand Parc Miribel Jonage), qui regroupe les onze communes limitrophes du projet ainsi que les deux départements concernés : le Rhône et l'Ain.
 Les aménagements sont progressifs : le rocher d'escalade en 1977, le court de tennis en 1978, la piste cyclable en 1982 et le golf en 1985. En 1991, le Grand Lyon, sous l'impulsion de Michel Noir, classe le site en « zone inaltérable ». C'est en 1993 que la charte d'objectif du projet est signée entre les partenaires intervenant sur le site : l'État, les deux conseils généraux du Rhône et de l'Ain, les communes du Symalim, EDF et l'agence de l'eau. Les grands projets immobiliers qui avaient un temps accompagné l'aménagement de la zone de loisirs sont abandonnés. C'est la valorisation de la nature qui est retenue. La charte du parc veut baliser l'urbain et éviter un espace de libertés incontrôlé. Le site doit être progressivement aménagé pour devenir un « site naturel ».
 En 2008, le Grand Parc de Miribel-Jonage était le 19e site le plus visité de France, avec 3 500 000 visiteurs par an.
@@ -549,112 +563,193 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Parc de Miribel-Jonage a été créé en 1968. La plus grande partie du parc se trouve dans l'Est lyonnais, sur les territoires des communes de Vaulx-en-Velin, Décines-Charpieu, Meyzieu et Jonage. Le parc se trouve de façon plus modeste, sur les territoires d'une autre commune du département du Rhône, Jons; et dans le département de l'Ain, à Beynost, Neyron, Miribel, Saint-Maurice-de-Beynost, Thil et Niévroz.
-Ces onze communes sont regroupées[5] au sein du Symalim (Syndicat mixte pour l'aménagement et la gestion du Grand Parc de Miribel-Jonage) ; s'y ajoutent le Grand Lyon, la ville de Villeurbanne et des représentants des deux départements concernés : le département du Rhône et le département de l'Ain. Une société mixte est chargée de la gestion et de l'animation du parc : la Segapal (Société d'économie mixte pour la gestion et l'animation du Grand Parc de Miribel-Jonage).
-Dénomination
-Le nom du parc a évolué au fil des années : du « Parc Miribel-Jonage » à l’appellation « Parc Nature des îles Miribel-Jonage », comme un rappel de l'intérêt écologique du parc. Le parc devenant un enjeu politique et économique pour les élus de la COURLY (ancien nom du Grand Lyon jusqu'aux années 1990), ses dirigeants rebaptisent l'espace « Grand Parc Miribel Jonage » en référence au Grand Lyon[réf. souhaitée].
+Ces onze communes sont regroupées au sein du Symalim (Syndicat mixte pour l'aménagement et la gestion du Grand Parc de Miribel-Jonage) ; s'y ajoutent le Grand Lyon, la ville de Villeurbanne et des représentants des deux départements concernés : le département du Rhône et le département de l'Ain. Une société mixte est chargée de la gestion et de l'animation du parc : la Segapal (Société d'économie mixte pour la gestion et l'animation du Grand Parc de Miribel-Jonage).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grand_Parc_de_Miribel-Jonage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Parc_de_Miribel-Jonage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du parc a évolué au fil des années : du « Parc Miribel-Jonage » à l’appellation « Parc Nature des îles Miribel-Jonage », comme un rappel de l'intérêt écologique du parc. Le parc devenant un enjeu politique et économique pour les élus de la COURLY (ancien nom du Grand Lyon jusqu'aux années 1990), ses dirigeants rebaptisent l'espace « Grand Parc Miribel Jonage » en référence au Grand Lyon[réf. souhaitée].
 			Le logo du Grand Parc
 			Le centre Nathalie-Gautier, où se trouve le siège du Symalim ainsi que celui de la Segapal (société publique locale, chargée de la gestion et de l’animation du parc).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situation
-Le parc est limité par le canal de Miribel au Nord et par le canal de Jonage (du réservoir du Grand-Large jusqu'à sa frontière Est). À l'Est, il débute à proximité du pont de Jons, juste avant la division du Rhône en deux canaux, au niveau du barrage de Jons. À l'Ouest, sa frontière est sur les territoires de Vaulx-en-Velin et Villeurbanne, avant la réunion des canaux de Miribel et de Jonage (et même avant l'embouchure du Vieux Rhône).
-Accessibilité
-Durant la période estivale (avril à septembre), le parc est desservi par la ligne N83 du réseau TCL. Depuis juillet 2022, il est également possible de se rendre au parc avec les lignes directes N80 (version directe de la ligne N83), N81, N82 et N84. Ces lignes directes circulent uniquement en juillet et en août.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Situation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est limité par le canal de Miribel au Nord et par le canal de Jonage (du réservoir du Grand-Large jusqu'à sa frontière Est). À l'Est, il débute à proximité du pont de Jons, juste avant la division du Rhône en deux canaux, au niveau du barrage de Jons. À l'Ouest, sa frontière est sur les territoires de Vaulx-en-Velin et Villeurbanne, avant la réunion des canaux de Miribel et de Jonage (et même avant l'embouchure du Vieux Rhône).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_Parc_de_Miribel-Jonage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Parc_de_Miribel-Jonage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Accessibilité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la période estivale (avril à septembre), le parc est desservi par la ligne N83 du réseau TCL. Depuis juillet 2022, il est également possible de se rendre au parc avec les lignes directes N80 (version directe de la ligne N83), N81, N82 et N84. Ces lignes directes circulent uniquement en juillet et en août.
 Pendant les vacances scolaires d'été, le parc est aussi desservi par la ligne "Grand Parc" du réseau Colibri.
 Deux autoroutes desservent le parc : l'A46 ( 5 à 30 km, Vaulx-en-Velin, Décines-Charpieu, Parc de Miribel-Jonage) et l'A42 ( 4 Miribel à 5 km ; villes desservies Neyron, Miribel, Parc de Miribel-Jonage).
 Le parc est traversé par la ViaRhôna, itinéraire cyclable reliant Genève à la mer Méditerranée via la vallée du Rhône.
-Un projet de téléphérique qui permettrait de desservir le parc depuis la ville de Décines-Charpieu en correspondance avec la ligne de tramway T3 du réseau TCL a été étudié mais ne s'est pas concrétisé[6].
+Un projet de téléphérique qui permettrait de desservir le parc depuis la ville de Décines-Charpieu en correspondance avec la ligne de tramway T3 du réseau TCL a été étudié mais ne s'est pas concrétisé.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Festivals</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc accueille trois festivals : le premier, Evasion Festival, se tient au début du mois de juillet et est consacré aux musiques électroniques. Le second, consacré aux musiques du monde, est le Festival Couleurs Mundo et a lieu en juillet. Le troisième, se déroulant chaque année en août ou septembre (depuis 2005), est le festival de musique et de théâtre de rue Woodstower.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grand_Parc_de_Miribel-Jonage</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a servi de lieu de tournage, en 2015 au  feuilleton policier de Charlotte Brändström Disparue.
 </t>
